--- a/Data Files/TestData/PermisosTestDataHorses.xlsx
+++ b/Data Files/TestData/PermisosTestDataHorses.xlsx
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
   <si>
     <t xml:space="preserve">TestCaseId</t>
   </si>
   <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USER ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSWORD</t>
+    <t xml:space="preserve">URL de entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario de prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password de prueba</t>
   </si>
   <si>
     <t xml:space="preserve">Fecha Inicio</t>
@@ -76,25 +76,25 @@
     <t xml:space="preserve">1234</t>
   </si>
   <si>
-    <t xml:space="preserve">17/09/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:28:16.430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:28:51.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrome 71.0.3578.98</t>
+    <t xml:space="preserve">10/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:19:54.439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:20:54.437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Server 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firefox 69.0.2</t>
   </si>
   <si>
     <t xml:space="preserve">1920x1080</t>
   </si>
   <si>
-    <t xml:space="preserve">Caballos</t>
+    <t xml:space="preserve">Horses</t>
   </si>
   <si>
     <t xml:space="preserve">Fallido</t>
@@ -103,25 +103,25 @@
     <t xml:space="preserve">Validación de permiso fallida por incumplimiento de verifaicación de elementos en la página</t>
   </si>
   <si>
-    <t>17/09/2019</t>
-  </si>
-  <si>
-    <t>11:33:39.128</t>
-  </si>
-  <si>
-    <t>Windows 10</t>
+    <t>10/10/2019</t>
+  </si>
+  <si>
+    <t>10:46:41.398</t>
+  </si>
+  <si>
+    <t>Windows Server 2016</t>
   </si>
   <si>
     <t>1920x1080</t>
   </si>
   <si>
-    <t>Firefox 65.0</t>
+    <t>Firefox 69.0.2</t>
   </si>
   <si>
     <t>Horses</t>
   </si>
   <si>
-    <t>11:33:39.219</t>
+    <t>10:47:07.775</t>
   </si>
   <si>
     <t>Exitoso</t>
@@ -130,112 +130,85 @@
     <t>Permiso Horses es correctamente accesible para el usuario</t>
   </si>
   <si>
-    <t>11:33:39.227</t>
-  </si>
-  <si>
-    <t>15:13:07.546</t>
-  </si>
-  <si>
-    <t>15:13:07.645</t>
-  </si>
-  <si>
-    <t>15:13:07.654</t>
-  </si>
-  <si>
-    <t>15:13:56.372</t>
+    <t>http://pregame-support.bminc.eu</t>
+  </si>
+  <si>
+    <t>4fku01</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>10:47:07.817</t>
+  </si>
+  <si>
+    <t>13:43:54.070</t>
   </si>
   <si>
     <t>Fallido</t>
   </si>
   <si>
-    <t>Validación de permiso fallida por incumplimiento de verifaicación de elementos en la página</t>
-  </si>
-  <si>
-    <t>15:13:56.497</t>
-  </si>
-  <si>
-    <t>15:14:57.792</t>
-  </si>
-  <si>
-    <t>Firefox 69.0</t>
-  </si>
-  <si>
-    <t>15:14:57.876</t>
-  </si>
-  <si>
-    <t>15:14:57.882</t>
-  </si>
-  <si>
-    <t>15:17:46.697</t>
-  </si>
-  <si>
-    <t>15:17:46.790</t>
-  </si>
-  <si>
-    <t>15:17:46.797</t>
-  </si>
-  <si>
-    <t>15:22:24.805</t>
-  </si>
-  <si>
-    <t>15:22:24.890</t>
-  </si>
-  <si>
-    <t>15:22:24.897</t>
-  </si>
-  <si>
-    <t>15:30:13.192</t>
-  </si>
-  <si>
-    <t>15:30:13.275</t>
-  </si>
-  <si>
-    <t>15:30:13.280</t>
-  </si>
-  <si>
-    <t>03/10/2019</t>
-  </si>
-  <si>
-    <t>11:24:05.317</t>
-  </si>
-  <si>
-    <t>11:24:05.374</t>
-  </si>
-  <si>
-    <t>11:24:43.295</t>
-  </si>
-  <si>
-    <t>11:24:43.403</t>
-  </si>
-  <si>
-    <t>11:24:43.412</t>
-  </si>
-  <si>
-    <t>11:51:06.100</t>
-  </si>
-  <si>
-    <t>11:51:06.226</t>
-  </si>
-  <si>
-    <t>11:51:06.239</t>
-  </si>
-  <si>
-    <t>13:43:57.809</t>
-  </si>
-  <si>
-    <t>13:44:20.063</t>
-  </si>
-  <si>
-    <t>13:44:20.074</t>
-  </si>
-  <si>
-    <t>07/10/2019</t>
-  </si>
-  <si>
-    <t>11:09:19.615</t>
-  </si>
-  <si>
-    <t>11:09:19.653</t>
+    <t>Validación de permiso fallida causado por excepción inesperada</t>
+  </si>
+  <si>
+    <t>13:44:13.423</t>
+  </si>
+  <si>
+    <t>13:51:46.877</t>
+  </si>
+  <si>
+    <t>13:51:47.116</t>
+  </si>
+  <si>
+    <t>13:51:47.146</t>
+  </si>
+  <si>
+    <t>13:54:17.424</t>
+  </si>
+  <si>
+    <t>13:54:17.601</t>
+  </si>
+  <si>
+    <t>http://10.0.74.5/index/home</t>
+  </si>
+  <si>
+    <t>13:54:17.628</t>
+  </si>
+  <si>
+    <t>14:08:20.135</t>
+  </si>
+  <si>
+    <t>14:09:03.673</t>
+  </si>
+  <si>
+    <t>14:09:03.707</t>
+  </si>
+  <si>
+    <t>14:09:57.297</t>
+  </si>
+  <si>
+    <t>14:09:57.457</t>
+  </si>
+  <si>
+    <t>14:09:57.481</t>
+  </si>
+  <si>
+    <t>14:12:05.521</t>
+  </si>
+  <si>
+    <t>14:12:05.692</t>
+  </si>
+  <si>
+    <t>14:12:05.712</t>
+  </si>
+  <si>
+    <t>14:13:10.117</t>
+  </si>
+  <si>
+    <t>14:13:10.333</t>
+  </si>
+  <si>
+    <t>14:13:10.361</t>
   </si>
 </sst>
 </file>
@@ -246,7 +219,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,13 +241,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -326,7 +292,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -428,17 +394,16 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.63" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="40.42" collapsed="true" outlineLevel="0"/>
     <col min="3" max="3" customWidth="true" hidden="false" style="0" width="17.25" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="15.63" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="10.99" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="7" customWidth="true" hidden="false" style="0" width="8.67" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="19.86" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="16.11" collapsed="true" outlineLevel="0"/>
     <col min="8" max="8" customWidth="true" hidden="false" style="0" width="10.5" collapsed="true" outlineLevel="0"/>
     <col min="9" max="9" customWidth="true" hidden="false" style="0" width="27.38" collapsed="true" outlineLevel="0"/>
     <col min="10" max="10" customWidth="true" hidden="false" style="0" width="22.01" collapsed="true" outlineLevel="0"/>
@@ -446,7 +411,6 @@
     <col min="12" max="12" customWidth="true" hidden="false" style="0" width="15.75" collapsed="true" outlineLevel="0"/>
     <col min="13" max="13" customWidth="true" hidden="false" style="0" width="6.88" collapsed="true" outlineLevel="0"/>
     <col min="14" max="14" customWidth="true" hidden="false" style="0" width="54.63" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="1025" customWidth="true" hidden="false" style="0" width="8.67" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,32 +461,32 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
@@ -531,10 +495,10 @@
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
